--- a/Data/Processed/Angiosperms/missing_powo_ipni/Alismataceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Alismataceae.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1367,7 +1367,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2049,7 +2049,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2225,7 +2225,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2786,7 +2786,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2929,7 +2929,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3677,7 +3677,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3985,7 +3985,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4238,7 +4238,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4326,7 +4326,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4524,7 +4524,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -5052,7 +5052,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5140,7 +5140,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -7535,7 +7535,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -7545,7 +7545,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t xml:space="preserve">Darwiniana 16: 18, fig. 4. 1970 </t>
+          <t>Darwiniana 16: 18, fig. 4. 1970</t>
         </is>
       </c>
       <c r="J117" t="b">
@@ -7613,7 +7613,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -7623,7 +7623,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t xml:space="preserve">Folia Geobot. Phytotax. 5: 214, fig. 1C. 1970 </t>
+          <t>Folia Geobot. Phytotax. 5: 214, fig. 1C. 1970</t>
         </is>
       </c>
       <c r="J118" t="b">
@@ -7691,7 +7691,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -7701,7 +7701,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pflanzenr. (Engler) 15: 34. 1903 </t>
+          <t>Pflanzenr. (Engler) 15: 34. 1903</t>
         </is>
       </c>
       <c r="J119" t="b">
